--- a/bot_ecomerce_action_figure/data_collect_AFigure.xlsx
+++ b/bot_ecomerce_action_figure/data_collect_AFigure.xlsx
@@ -461,7 +461,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>US $16.50</t>
+          <t>US $25.00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -476,12 +476,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Star Wars Mandalorian Baby Yoda Th</t>
+          <t xml:space="preserve"> Action Figure Star Wars Yoda Darth</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>US $10.99</t>
+          <t>US $14.93</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -496,12 +496,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Funko - Star Wars Yoda Pop! Vinyl </t>
+          <t xml:space="preserve"> Star Wars Mandalorian Baby Yoda Th</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>US $12.94</t>
+          <t>US $10.99</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -536,17 +536,17 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Kenner Star Wars Yoda Action Figur</t>
+          <t xml:space="preserve"> Hasbro Star Wars Black Series 6” Y</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>US $4.00</t>
+          <t>US $13.00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>US $5.30</t>
+          <t>US $5.90</t>
         </is>
       </c>
     </row>
